--- a/doc/服务接口设计文档0325.xlsx
+++ b/doc/服务接口设计文档0325.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="1000" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="用户注册#" sheetId="3" r:id="rId1"/>
@@ -1119,6 +1119,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1138,12 +1144,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1429,7 +1429,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1749,7 +1749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D7" s="31"/>
     </row>
-    <row r="8" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>194</v>
       </c>
@@ -1885,10 +1885,10 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="33" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1897,8 +1897,8 @@
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="5" t="s">
         <v>60</v>
       </c>
@@ -1907,8 +1907,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="5" t="s">
         <v>173</v>
       </c>
@@ -1917,8 +1917,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="20" t="s">
         <v>62</v>
       </c>
@@ -1927,30 +1927,30 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="32" t="s">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="32" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="39"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="32"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="39"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="32"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="20" t="s">
         <v>67</v>
       </c>
@@ -2113,30 +2113,30 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="34" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="32"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="34"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="32"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="34"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
@@ -2886,10 +2886,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="38" t="s">
         <v>152</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -2900,8 +2900,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="15" t="s">
         <v>156</v>
       </c>
@@ -2910,8 +2910,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="15" t="s">
         <v>155</v>
       </c>
@@ -2920,8 +2920,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="15" t="s">
         <v>153</v>
       </c>
@@ -2930,8 +2930,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="15" t="s">
         <v>110</v>
       </c>
@@ -2940,8 +2940,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="11" t="s">
         <v>157</v>
       </c>
@@ -3220,8 +3220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4330,7 +4330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>194</v>
       </c>
